--- a/distribution/reference_documents/working_material/AVCDL roles and responsibilities.xlsx
+++ b/distribution/reference_documents/working_material/AVCDL roles and responsibilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/reference_documents/working_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/source/reference_documents/working_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB16767-29DC-AA40-A5F7-A4A2E89B40FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B2D61C-8960-D844-A35D-56CF7B91A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="720" windowWidth="35560" windowHeight="24040" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
